--- a/biology/Médecine/1709_en_santé_et_médecine/1709_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1709_en_santé_et_médecine/1709_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1709_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1709_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1709 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1709_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1709_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hiver très rigoureux suivi, en France, de la grande famine de 1709[1].
-Étienne-François Geoffroy (1672-1731) devient titulaire de la chaire de médecine au Collège royal[2]. Il la gardera jusqu'en sa mort en 1731.
-Herman Boerhaave (1668-1738) devient professeur titulaire de la chaire de médecine à l'Université de Leyde[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hiver très rigoureux suivi, en France, de la grande famine de 1709.
+Étienne-François Geoffroy (1672-1731) devient titulaire de la chaire de médecine au Collège royal. Il la gardera jusqu'en sa mort en 1731.
+Herman Boerhaave (1668-1738) devient professeur titulaire de la chaire de médecine à l'Université de Leyde.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1709_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1709_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Dionis publie Dissertation sur la mort subite sur Gallica.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1709_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1709_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>12 février : Jacques Barbeu du Bourg (mort en 1779), médecin, polygraphe, historien et scientifique français.
 17 février : René-Théophile-Hyacinthe Laennec (mort en 1826), médecin français.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1709_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1709_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>21 janvier : William Lewis (né en 1714), médecin et chimiste anglais.
 29 août : Johann Friedrich Schweitzer ou Johann Friedrich Helvétius  (né en 1630), médecin et alchimiste.
